--- a/text/テーブル定義書.xlsx
+++ b/text/テーブル定義書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BA968B-C22B-4CFF-BCF4-8686EF2BE77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A050003-C5C5-9341-AC90-241C172A3428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義" sheetId="1" r:id="rId1"/>
     <sheet name="初期データ" sheetId="2" r:id="rId2"/>
+    <sheet name="demo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -763,17 +764,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -782,9 +783,16 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -880,7 +888,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -893,6 +901,2466 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB67557-2D58-6EEA-14FC-4EF88CCF3457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="558800"/>
+          <a:ext cx="4127500" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ログイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583E746C-F612-6540-A4F6-3FBC4168C19A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778500" y="533400"/>
+          <a:ext cx="4127500" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>1:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>request</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M0002</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>日付で検索</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>取得したデータをプレビュー</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>削除</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>遷移リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>資材名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>詳細情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M0003</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>遷移リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M0001</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6D8CB3-1991-7EA7-6FFA-C3482678D853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778500" y="3746500"/>
+          <a:ext cx="4127500" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>2:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rapproval</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M0002</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>日付で検索</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>取得したデータをプレビュー</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>遷移リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>資材名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>詳細情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>M0005</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DDBFBEF-8B25-DF4F-C129-97BF1F91A984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778500" y="6934200"/>
+          <a:ext cx="4127500" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>3,5:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>order</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>M0006</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>発注画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M0007</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>納品画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>機能１：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>部署によって、データを取得</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>遷移リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>資材名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>詳細情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>M0005</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>遷移リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>2:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>QR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>コード→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>qr.jsp</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94774D95-9E25-A2E4-0DB5-A14E82AAA349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778500" y="10134600"/>
+          <a:ext cx="4127500" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>4:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>store</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8?9?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>出入庫画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機能１：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF1F798-2A69-4BB1-8B36-9167E762C399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778500" y="13373100"/>
+          <a:ext cx="4127500" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>error</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7A4B8A-D619-684A-A806-D35D2735197D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10731500" y="533400"/>
+          <a:ext cx="4127500" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>資材名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>詳細情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M0003</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>データの更新</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>遷移リンク１：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M0002</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面にの戻りボタン</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="肘形连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D425602-4267-695F-3D74-15BE984D3D1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="0"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="8350250" y="1530350"/>
+          <a:ext cx="1873250" cy="2889250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="肘形连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1458FC32-1B0E-CB74-8EDE-2A743B6FD679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9906000" y="8616950"/>
+          <a:ext cx="800100" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 62698"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1328EF59-416C-374B-B8DF-6DD375CFB88B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10706100" y="7112000"/>
+          <a:ext cx="4127500" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>資材名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>詳細情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M0005</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>データ取得し、プレビュー</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>遷移リンク１：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>???</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="肘形连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA20538-C2FF-35EA-741D-4FA6DC2B7D48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9906000" y="10121900"/>
+          <a:ext cx="2863850" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA2CBB6F-5C53-5640-8003-09779EA548AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10731500" y="3911600"/>
+          <a:ext cx="4127500" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リンク</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>データの新規追加</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>遷移リンク１：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M0002</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面にの戻りボタン</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="肘形连接符 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F09D9-2CF5-FA4B-B4BB-96CF5CB52A39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="5416550"/>
+          <a:ext cx="825500" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1188,17 +3656,17 @@
       <selection activeCell="C17" sqref="C17:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +3695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="3" customFormat="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1254,7 +3722,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="3" customFormat="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1275,7 +3743,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="3" customFormat="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1296,7 +3764,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="3" customFormat="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1317,7 +3785,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="3" customFormat="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1338,7 +3806,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="82.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="82" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1361,7 +3829,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="3" customFormat="1">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -1388,7 +3856,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="3" customFormat="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1409,7 +3877,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="3" customFormat="1">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -1436,7 +3904,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="3" customFormat="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1457,7 +3925,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="3" customFormat="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1478,7 +3946,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="8">
         <v>4</v>
       </c>
@@ -1505,7 +3973,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1526,7 +3994,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="8">
         <v>5</v>
       </c>
@@ -1553,7 +4021,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1574,7 +4042,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="3" customFormat="1">
       <c r="A17" s="8">
         <v>6</v>
       </c>
@@ -1603,7 +4071,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="3" customFormat="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1624,7 +4092,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="3" customFormat="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1645,7 +4113,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="3" customFormat="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1666,7 +4134,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="3" customFormat="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1687,7 +4155,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="3" customFormat="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1708,7 +4176,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="3" customFormat="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1729,7 +4197,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="3" customFormat="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1750,7 +4218,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="3" customFormat="1">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1771,7 +4239,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="3" customFormat="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1792,7 +4260,7 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="3" customFormat="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1813,7 +4281,7 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="3" customFormat="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1834,7 +4302,7 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="3" customFormat="1">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1855,7 +4323,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="3" customFormat="1">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1878,24 +4346,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="C17:C30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="C17:C30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1907,22 +4375,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="C18:D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15">
       <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1942,7 +4410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="C5" s="7" t="s">
         <v>87</v>
       </c>
@@ -1962,7 +4430,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="C6" s="7" t="s">
         <v>93</v>
       </c>
@@ -1982,7 +4450,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="C7" s="7" t="s">
         <v>96</v>
       </c>
@@ -2002,7 +4470,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="C8" s="7" t="s">
         <v>99</v>
       </c>
@@ -2022,7 +4490,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="C9" s="7" t="s">
         <v>101</v>
       </c>
@@ -2042,7 +4510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="C10" s="7" t="s">
         <v>105</v>
       </c>
@@ -2062,7 +4530,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="C11" s="7" t="s">
         <v>108</v>
       </c>
@@ -2082,13 +4550,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B13" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15">
       <c r="C15" s="6" t="s">
         <v>44</v>
       </c>
@@ -2096,7 +4564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="C16" s="7" t="s">
         <v>92</v>
       </c>
@@ -2104,7 +4572,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="C17" s="7" t="s">
         <v>98</v>
       </c>
@@ -2112,7 +4580,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="C18" s="7" t="s">
         <v>104</v>
       </c>
@@ -2120,7 +4588,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="C19" s="7" t="s">
         <v>107</v>
       </c>
@@ -2128,7 +4596,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="C20" s="7" t="s">
         <v>110</v>
       </c>
@@ -2136,7 +4604,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="C21" s="7" t="s">
         <v>117</v>
       </c>
@@ -2144,7 +4612,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="C22" s="7" t="s">
         <v>119</v>
       </c>
@@ -2152,13 +4620,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15">
       <c r="C26" s="6" t="s">
         <v>17</v>
       </c>
@@ -2169,7 +4637,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="C27" s="7" t="s">
         <v>90</v>
       </c>
@@ -2180,7 +4648,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="C28" s="7" t="s">
         <v>95</v>
       </c>
@@ -2191,7 +4659,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="C29" s="7" t="s">
         <v>125</v>
       </c>
@@ -2202,7 +4670,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="C30" s="7" t="s">
         <v>103</v>
       </c>
@@ -2213,7 +4681,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="C31" s="7" t="s">
         <v>128</v>
       </c>
@@ -2224,7 +4692,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="C32" s="7" t="s">
         <v>130</v>
       </c>
@@ -2235,7 +4703,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5">
       <c r="C33" s="7" t="s">
         <v>132</v>
       </c>
@@ -2246,7 +4714,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5">
       <c r="C34" s="7" t="s">
         <v>134</v>
       </c>
@@ -2257,7 +4725,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:5">
       <c r="C35" s="7" t="s">
         <v>136</v>
       </c>
@@ -2268,7 +4736,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:5">
       <c r="C36" s="7" t="s">
         <v>138</v>
       </c>
@@ -2279,7 +4747,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:5">
       <c r="C37" s="7" t="s">
         <v>140</v>
       </c>
@@ -2290,7 +4758,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:5">
       <c r="C38" s="7" t="s">
         <v>142</v>
       </c>
@@ -2301,7 +4769,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:5">
       <c r="C39" s="7" t="s">
         <v>144</v>
       </c>
@@ -2312,7 +4780,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:5">
       <c r="C40" s="7" t="s">
         <v>146</v>
       </c>
@@ -2323,7 +4791,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:5">
       <c r="C41" s="7" t="s">
         <v>148</v>
       </c>
@@ -2334,7 +4802,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:5">
       <c r="C42" s="7" t="s">
         <v>150</v>
       </c>
@@ -2345,7 +4813,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:5">
       <c r="C43" s="7" t="s">
         <v>152</v>
       </c>
@@ -2356,7 +4824,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:5">
       <c r="C44" s="7" t="s">
         <v>154</v>
       </c>
@@ -2367,7 +4835,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:5">
       <c r="C45" s="7" t="s">
         <v>156</v>
       </c>
@@ -2378,7 +4846,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:5">
       <c r="C46" s="7" t="s">
         <v>158</v>
       </c>
@@ -2389,7 +4857,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:5">
       <c r="C47" s="7" t="s">
         <v>160</v>
       </c>
@@ -2400,7 +4868,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:5">
       <c r="C48" s="7" t="s">
         <v>162</v>
       </c>
@@ -2411,7 +4879,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="C49" s="7" t="s">
         <v>164</v>
       </c>
@@ -2422,7 +4890,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="C50" s="7" t="s">
         <v>166</v>
       </c>
@@ -2433,13 +4901,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B52" s="5"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="15">
       <c r="C54" s="6" t="s">
         <v>17</v>
       </c>
@@ -2447,7 +4915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="C55" s="7" t="s">
         <v>90</v>
       </c>
@@ -2455,7 +4923,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="C56" s="7" t="s">
         <v>95</v>
       </c>
@@ -2463,7 +4931,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="C57" s="7" t="s">
         <v>125</v>
       </c>
@@ -2471,7 +4939,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="C58" s="7" t="s">
         <v>103</v>
       </c>
@@ -2479,13 +4947,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B60" s="5"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="15">
       <c r="C62" s="6" t="s">
         <v>17</v>
       </c>
@@ -2493,7 +4961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="C63" s="7" t="s">
         <v>90</v>
       </c>
@@ -2501,7 +4969,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="C64" s="7" t="s">
         <v>95</v>
       </c>
@@ -2509,7 +4977,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:4">
       <c r="C65" s="7" t="s">
         <v>125</v>
       </c>
@@ -2517,7 +4985,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:4">
       <c r="C66" s="7" t="s">
         <v>103</v>
       </c>
@@ -2525,7 +4993,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:4">
       <c r="C67" s="7" t="s">
         <v>128</v>
       </c>
@@ -2533,7 +5001,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:4">
       <c r="C68" s="7" t="s">
         <v>130</v>
       </c>
@@ -2541,7 +5009,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:4">
       <c r="C69" s="7" t="s">
         <v>132</v>
       </c>
@@ -2554,4 +5022,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD9EDDC-D122-3341-955E-5C279FAB438D}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+    <row r="2" customFormat="1"/>
+    <row r="3" customFormat="1"/>
+    <row r="4" customFormat="1"/>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1"/>
+    <row r="13" customFormat="1"/>
+    <row r="14" customFormat="1"/>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/text/テーブル定義書.xlsx
+++ b/text/テーブル定義書.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A050003-C5C5-9341-AC90-241C172A3428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7166AF3-155D-4C66-8634-9F05968C0949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義" sheetId="1" r:id="rId1"/>
     <sheet name="初期データ" sheetId="2" r:id="rId2"/>
-    <sheet name="demo" sheetId="3" r:id="rId3"/>
+    <sheet name="SIZAI" sheetId="4" r:id="rId3"/>
+    <sheet name="demo" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="272">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -759,22 +760,260 @@
     <t>備考</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>SIZAI</t>
+  </si>
+  <si>
+    <t>A4用紙</t>
+  </si>
+  <si>
+    <t>« NULL »</t>
+  </si>
+  <si>
+    <t>コピー用紙</t>
+  </si>
+  <si>
+    <t>Java教科書</t>
+  </si>
+  <si>
+    <t>sdfsdfdsf</t>
+  </si>
+  <si>
+    <t>RedBull</t>
+  </si>
+  <si>
+    <t>adsfasf</t>
+  </si>
+  <si>
+    <t>モンスター</t>
+  </si>
+  <si>
+    <t>asdfasdfasdf</t>
+  </si>
+  <si>
+    <t>プリンター用紙</t>
+  </si>
+  <si>
+    <t>A4(400枚)5件</t>
+  </si>
+  <si>
+    <t>A3(400枚)5件</t>
+  </si>
+  <si>
+    <t>B1(50枚)2件</t>
+  </si>
+  <si>
+    <t>バナナ</t>
+  </si>
+  <si>
+    <t>asdfasdfasdfasdfasdf</t>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+  </si>
+  <si>
+    <t>封筒</t>
+  </si>
+  <si>
+    <t>A4三つ折りサイズ　</t>
+  </si>
+  <si>
+    <t>茶色</t>
+  </si>
+  <si>
+    <t>卵</t>
+  </si>
+  <si>
+    <t>クリアファイル</t>
+  </si>
+  <si>
+    <t>A4サイズ</t>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
+    <t>10kgでお願いします</t>
+  </si>
+  <si>
+    <t>魂</t>
+  </si>
+  <si>
+    <t>hoge</t>
+  </si>
+  <si>
+    <t>hogege</t>
+  </si>
+  <si>
+    <t>オレンジジュース</t>
+  </si>
+  <si>
+    <t>サントリーのでお願いします</t>
+  </si>
+  <si>
+    <t>ボールペン</t>
+  </si>
+  <si>
+    <t>プリンター</t>
+  </si>
+  <si>
+    <t>椅子</t>
+  </si>
+  <si>
+    <t>もち麦</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>トイレットペーパー</t>
+  </si>
+  <si>
+    <t>テスト用紙</t>
+  </si>
+  <si>
+    <t>紅茶</t>
+  </si>
+  <si>
+    <t>和牛</t>
+  </si>
+  <si>
+    <t>A5和牛</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>チキンライス</t>
+  </si>
+  <si>
+    <t>チキンチキン</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>トートバッグ</t>
+  </si>
+  <si>
+    <t>バッグ</t>
+  </si>
+  <si>
+    <t>トラ</t>
+  </si>
+  <si>
+    <t>ペットボトル</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>メビウス10ミリ　スリム</t>
+  </si>
+  <si>
+    <t>asdfasdfasdfasdfasdfasdfasdf</t>
+  </si>
+  <si>
+    <t>13241234</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>最贵的</t>
+  </si>
+  <si>
+    <t>紙はり用マグネット</t>
+  </si>
+  <si>
+    <t>車</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>打刀</t>
+  </si>
+  <si>
+    <t>日本刀のこと</t>
+  </si>
+  <si>
+    <t>メビウス100ミリ　スリム</t>
+  </si>
+  <si>
+    <t>飛行機</t>
+  </si>
+  <si>
+    <t>日本の飛行機</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>テレビ</t>
+  </si>
+  <si>
+    <t>fsdfds</t>
+  </si>
+  <si>
+    <t>シュクメルリ 5食</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>ccds</t>
+  </si>
+  <si>
+    <t>ブラックボード</t>
+  </si>
+  <si>
+    <t>客室に必要だから</t>
+  </si>
+  <si>
+    <t>客室の椅子が壊れました</t>
+  </si>
+  <si>
+    <t>600000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testユーザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="183" formatCode="yyyy/mm/dd\ h:mm:ss"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -783,20 +1022,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7F878F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,8 +1068,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -860,11 +1119,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -886,9 +1182,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1986,37 +2342,9 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
-            <a:t>QR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>コード→</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" kern="1200"/>
-            <a:t>qr.jsp</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>納品ボダン</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
         </a:p>
         <a:p>
@@ -2162,7 +2490,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>8?9?</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
@@ -2174,7 +2502,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>出入庫画面</a:t>
+            <a:t>入庫画面</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
             <a:solidFill>
@@ -2658,14 +2986,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>769620</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>90170</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2678,17 +3006,16 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="16" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9906000" y="8616950"/>
-          <a:ext cx="800100" cy="12700"/>
+          <a:off x="9509760" y="7612380"/>
+          <a:ext cx="769620" cy="524510"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 62698"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -2954,12 +3281,12 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
@@ -2974,16 +3301,18 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="16" idx="2"/>
+          <a:endCxn id="16" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9906000" y="10121900"/>
-          <a:ext cx="2863850" cy="1695450"/>
+          <a:off x="9509760" y="8129270"/>
+          <a:ext cx="792480" cy="3017520"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
           <a:tailEnd type="triangle"/>
@@ -3333,6 +3662,599 @@
         <a:xfrm>
           <a:off x="9906000" y="5416550"/>
           <a:ext cx="825500" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A11670-B387-FE09-D9DB-81CC4C83C582}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10302240" y="12740640"/>
+          <a:ext cx="3962400" cy="2847340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>出庫ボダン↓</a:t>
+          </a:r>
+          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>庫画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>機能１：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="肘形连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBD47EB-EF83-44F3-9B60-0B1D9A2C1EA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9509760" y="14164310"/>
+          <a:ext cx="762000" cy="679450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A685FA74-3006-7069-790D-0274154D3879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="9723120"/>
+          <a:ext cx="3962400" cy="2847340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>納品ボダン↓</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M0007</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>納品画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>機能１：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>部署によって、データを取得</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>遷移リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>資材名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>詳細情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>M0005</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>遷移リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>2:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>QR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>コード→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" kern="1200"/>
+            <a:t>qr.jsp</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="肘形连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A9AE5A-025E-6682-6098-948BD6FDCC88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9509760" y="11146790"/>
+          <a:ext cx="807720" cy="572770"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3653,20 +4575,20 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C30"/>
+      <selection activeCell="B8" sqref="B8:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3695,7 +4617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3722,7 +4644,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3743,7 +4665,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -3764,7 +4686,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -3785,7 +4707,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3806,7 +4728,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="82" customHeight="1">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="82.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -3829,7 +4751,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1">
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -3856,7 +4778,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1">
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -3877,7 +4799,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1">
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -3904,7 +4826,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1">
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3925,7 +4847,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1">
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3946,7 +4868,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>4</v>
       </c>
@@ -3973,7 +4895,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3994,7 +4916,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>5</v>
       </c>
@@ -4021,7 +4943,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -4042,7 +4964,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>6</v>
       </c>
@@ -4071,7 +4993,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1">
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -4092,7 +5014,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1">
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -4113,7 +5035,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1">
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -4134,7 +5056,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1">
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -4155,7 +5077,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1">
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -4176,7 +5098,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1">
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -4197,7 +5119,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1">
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -4218,7 +5140,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1">
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -4239,7 +5161,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -4260,7 +5182,7 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -4281,7 +5203,7 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1">
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -4302,7 +5224,7 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1">
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -4323,7 +5245,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1">
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -4346,24 +5268,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="A17:A30"/>
     <mergeCell ref="B17:B30"/>
     <mergeCell ref="C17:C30"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4373,24 +5295,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H69"/>
+  <dimension ref="A2:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
@@ -4410,7 +5332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>87</v>
       </c>
@@ -4430,7 +5352,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
         <v>93</v>
       </c>
@@ -4450,7 +5372,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>96</v>
       </c>
@@ -4470,7 +5392,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
         <v>99</v>
       </c>
@@ -4490,7 +5412,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
         <v>101</v>
       </c>
@@ -4510,7 +5432,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" s="7" t="s">
         <v>105</v>
       </c>
@@ -4530,7 +5452,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
         <v>108</v>
       </c>
@@ -4550,470 +5472,490 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="15">
-      <c r="C15" s="6" t="s">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="C16" s="7" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="C17" s="7" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="C18" s="7" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="C19" s="7" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="C20" s="7" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="C21" s="7" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="C22" s="7" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="C26" s="6" t="s">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="C27" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="7" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="C28" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29" s="7" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" s="7" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="3:5">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C49" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C50" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="5" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B52" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="15">
-      <c r="C54" s="6" t="s">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="C55" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" s="7" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C56" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="C56" s="7" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C57" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="C57" s="7" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="C58" s="7" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="5" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="62" spans="1:5" ht="15">
-      <c r="C62" s="6" t="s">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C63" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="C63" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="7" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C64" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="C64" s="7" t="s">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D65" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="7" t="s">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
-      <c r="C66" s="7" t="s">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D67" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="7" t="s">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C68" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D68" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="3:4">
-      <c r="C68" s="7" t="s">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D69" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
-      <c r="C69" s="7" t="s">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5025,33 +5967,2233 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFDC10D-15F8-47B1-8587-0F72F16FCD79}">
+  <dimension ref="A2:O53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="28"/>
+    <col min="2" max="2" width="4.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="28" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="11">
+        <v>45614.648935185185</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" s="11">
+        <v>45622.440104166664</v>
+      </c>
+      <c r="N4" s="11">
+        <v>45622.57980324074</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="9">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="11">
+        <v>45614.649178240739</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" s="11">
+        <v>45622.535821759258</v>
+      </c>
+      <c r="N5" s="11">
+        <v>45622.544907407406</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="9">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="11">
+        <v>45615.459050925929</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M6" s="11">
+        <v>45615.465983796297</v>
+      </c>
+      <c r="N6" s="11">
+        <v>45615.466898148145</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="15">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="15">
+        <v>12</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="24">
+        <v>45618.510023148148</v>
+      </c>
+      <c r="K7" s="24">
+        <v>45622.550381944442</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="16"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="15">
+        <v>5</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="15">
+        <v>20</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="24">
+        <v>45615.460277777776</v>
+      </c>
+      <c r="K10" s="24">
+        <v>45621.519907407404</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="17"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="15">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="15">
+        <v>40</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="24">
+        <v>45615.468969907408</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M12" s="24">
+        <v>45615.474502314813</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="17"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="9">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="9">
+        <v>80</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="11">
+        <v>45621.534131944441</v>
+      </c>
+      <c r="K14" s="11">
+        <v>45621.643599537034</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="9">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="9">
+        <v>23</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="11">
+        <v>45616.719074074077</v>
+      </c>
+      <c r="K15" s="11">
+        <v>45622.533321759256</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N15" s="11">
+        <v>45622.533449074072</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="9">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="11">
+        <v>45617.675243055557</v>
+      </c>
+      <c r="K16" s="11">
+        <v>45622.531539351854</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N16" s="11">
+        <v>45622.531666666669</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="9">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="9">
+        <v>70</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="11">
+        <v>45618.436921296299</v>
+      </c>
+      <c r="K17" s="11">
+        <v>45618.712638888886</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N17" s="11">
+        <v>45622.530543981484</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="9">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="9">
+        <v>100</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="11">
+        <v>45621.655578703707</v>
+      </c>
+      <c r="K18" s="11">
+        <v>45622.53497685185</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N18" s="11">
+        <v>45622.535115740742</v>
+      </c>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="9">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="11">
+        <v>45622.455891203703</v>
+      </c>
+      <c r="K19" s="11">
+        <v>45624.493981481479</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="9">
+        <v>43</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="9">
+        <v>6</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="11">
+        <v>45622.456018518518</v>
+      </c>
+      <c r="K20" s="11">
+        <v>45624.493969907409</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="9">
+        <v>44</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="11">
+        <v>45622.519976851851</v>
+      </c>
+      <c r="K21" s="11">
+        <v>45624.465763888889</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="9">
+        <v>45</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="11">
+        <v>45622.535555555558</v>
+      </c>
+      <c r="K22" s="11">
+        <v>45622.753993055558</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="9">
+        <v>46</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="9">
+        <v>10</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="11">
+        <v>45622.535682870373</v>
+      </c>
+      <c r="K23" s="11">
+        <v>45622.750509259262</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="9">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="9">
+        <v>100</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="11">
+        <v>45622.535752314812</v>
+      </c>
+      <c r="K24" s="11">
+        <v>45622.53837962963</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="9">
+        <v>48</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="9">
+        <v>100</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="11">
+        <v>45622.535937499997</v>
+      </c>
+      <c r="K25" s="11">
+        <v>45622.538356481484</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" s="11">
+        <v>45622.538483796299</v>
+      </c>
+      <c r="N25" s="11">
+        <v>45622.538576388892</v>
+      </c>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="9">
+        <v>49</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26" s="9">
+        <v>100</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="11">
+        <v>45622.536215277774</v>
+      </c>
+      <c r="K26" s="11">
+        <v>45622.750486111108</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="9">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" s="11">
+        <v>45622.536874999998</v>
+      </c>
+      <c r="K27" s="11">
+        <v>45624.454143518517</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="9">
+        <v>51</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="9">
+        <v>100</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J28" s="11">
+        <v>45622.547905092593</v>
+      </c>
+      <c r="K28" s="11">
+        <v>45624.534131944441</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="9">
+        <v>52</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="9">
+        <v>100</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="11">
+        <v>45622.548009259262</v>
+      </c>
+      <c r="K29" s="11">
+        <v>45624.534039351849</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="9">
+        <v>53</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="9">
+        <v>100</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="11">
+        <v>45622.54824074074</v>
+      </c>
+      <c r="K30" s="11">
+        <v>45624.454953703702</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="9">
+        <v>54</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="9">
+        <v>100</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" s="11">
+        <v>45622.548449074071</v>
+      </c>
+      <c r="K31" s="11">
+        <v>45624.456458333334</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" s="9">
+        <v>55</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="9">
+        <v>100</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" s="11">
+        <v>45622.548541666663</v>
+      </c>
+      <c r="K32" s="11">
+        <v>45624.461574074077</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="9">
+        <v>56</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" s="11">
+        <v>45622.562719907408</v>
+      </c>
+      <c r="K33" s="11">
+        <v>45624.46298611111</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34" s="9">
+        <v>58</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="9">
+        <v>500</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="11">
+        <v>45624.464131944442</v>
+      </c>
+      <c r="K34" s="11">
+        <v>45624.484409722223</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" s="9">
+        <v>59</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" s="9">
+        <v>30</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J35" s="11">
+        <v>45624.464317129627</v>
+      </c>
+      <c r="K35" s="11">
+        <v>45624.495370370372</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="9">
+        <v>60</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="9">
+        <v>30</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="11">
+        <v>45624.464444444442</v>
+      </c>
+      <c r="K36" s="11">
+        <v>45624.487060185187</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="9">
+        <v>61</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" s="9">
+        <v>30</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J37" s="11">
+        <v>45624.464733796296</v>
+      </c>
+      <c r="K37" s="11">
+        <v>45624.491666666669</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="9">
+        <v>62</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D38" s="9">
+        <v>4</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J38" s="11">
+        <v>45624.509386574071</v>
+      </c>
+      <c r="K38" s="11">
+        <v>45624.541307870371</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39" s="9">
+        <v>81</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" s="9">
+        <v>20</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J39" s="11">
+        <v>45685.438217592593</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M39" s="11">
+        <v>45685.444537037038</v>
+      </c>
+      <c r="N39" s="11">
+        <v>45685.446192129632</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="9">
+        <v>82</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J40" s="11">
+        <v>45685.438506944447</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M40" s="11">
+        <v>45685.458611111113</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B41" s="9">
+        <v>83</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D41" s="9">
+        <v>100</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J41" s="11">
+        <v>45685.448599537034</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B42" s="9">
+        <v>84</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42" s="9">
+        <v>20</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J42" s="11">
+        <v>45685.449432870373</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M42" s="11">
+        <v>45685.451909722222</v>
+      </c>
+      <c r="N42" s="11">
+        <v>45685.453055555554</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B43" s="9">
+        <v>85</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J43" s="11">
+        <v>45685.45045138889</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M43" s="11">
+        <v>45685.453194444446</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B44" s="9">
+        <v>86</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J44" s="11">
+        <v>45685.451562499999</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M44" s="11">
+        <v>45685.458958333336</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B45" s="9">
+        <v>87</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" s="9">
+        <v>100</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J45" s="11">
+        <v>45685.45207175926</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M45" s="11">
+        <v>45685.460555555554</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B46" s="9">
+        <v>88</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D46" s="9">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J46" s="11">
+        <v>45685.452847222223</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B47" s="9">
+        <v>89</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="9">
+        <v>50</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J47" s="11">
+        <v>45685.453657407408</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M47" s="11">
+        <v>45685.45484953704</v>
+      </c>
+      <c r="N47" s="11">
+        <v>45685.455000000002</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B48" s="9">
+        <v>90</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D48" s="9">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J48" s="11">
+        <v>45685.454097222224</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M48" s="11">
+        <v>45685.458391203705</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B49" s="9">
+        <v>91</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D49" s="9">
+        <v>5</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" s="11">
+        <v>45685.454884259256</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B50" s="9">
+        <v>92</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J50" s="11">
+        <v>45685.455023148148</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M50" s="11">
+        <v>45685.458275462966</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B51" s="9">
+        <v>104</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="9">
+        <v>20</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J51" s="11">
+        <v>45686.545023148145</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B52" s="9">
+        <v>105</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" s="9">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J52" s="11">
+        <v>45686.545578703706</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="30"/>
+      <c r="B53" s="9">
+        <v>121</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J53" s="11">
+        <v>45687.52815972222</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD9EDDC-D122-3341-955E-5C279FAB438D}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="1"/>
-    <row r="2" customFormat="1"/>
-    <row r="3" customFormat="1"/>
-    <row r="4" customFormat="1"/>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
+    <row r="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/text/テーブル定義書.xlsx
+++ b/text/テーブル定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7166AF3-155D-4C66-8634-9F05968C0949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FFB59C-B471-4DA5-811C-396F3E6DCE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義" sheetId="1" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="yyyy/mm/dd\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1179,16 +1179,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1200,48 +1197,51 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4574,8 +4574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4618,13 +4618,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -4645,9 +4645,9 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
@@ -4666,9 +4666,9 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
@@ -4687,9 +4687,9 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
@@ -4708,9 +4708,9 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
@@ -4729,9 +4729,9 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="82.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
@@ -4752,13 +4752,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -4779,9 +4779,9 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
@@ -4800,13 +4800,13 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="18">
         <v>3</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -4827,9 +4827,9 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
@@ -4848,9 +4848,9 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
@@ -4869,13 +4869,13 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="18">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -4896,9 +4896,9 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="2" t="s">
         <v>62</v>
       </c>
@@ -4917,13 +4917,13 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="A15" s="18">
         <v>5</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -4944,9 +4944,9 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="2" t="s">
         <v>66</v>
       </c>
@@ -4965,13 +4965,13 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="18">
         <v>6</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -4994,9 +4994,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="2" t="s">
         <v>182</v>
       </c>
@@ -5015,9 +5015,9 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="2" t="s">
         <v>183</v>
       </c>
@@ -5036,9 +5036,9 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="2" t="s">
         <v>184</v>
       </c>
@@ -5057,9 +5057,9 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="2" t="s">
         <v>185</v>
       </c>
@@ -5078,9 +5078,9 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="2" t="s">
         <v>186</v>
       </c>
@@ -5099,9 +5099,9 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="2" t="s">
         <v>187</v>
       </c>
@@ -5120,9 +5120,9 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="2" t="s">
         <v>188</v>
       </c>
@@ -5141,9 +5141,9 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="2" t="s">
         <v>189</v>
       </c>
@@ -5162,9 +5162,9 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="2" t="s">
         <v>190</v>
       </c>
@@ -5183,9 +5183,9 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="2" t="s">
         <v>191</v>
       </c>
@@ -5204,9 +5204,9 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="2" t="s">
         <v>192</v>
       </c>
@@ -5225,9 +5225,9 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="2" t="s">
         <v>193</v>
       </c>
@@ -5246,9 +5246,9 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="2" t="s">
         <v>194</v>
       </c>
@@ -5268,24 +5268,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="C17:C30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="C17:C30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5298,7 +5298,7 @@
   <dimension ref="A2:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D65" sqref="D65:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5970,31 +5970,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFDC10D-15F8-47B1-8587-0F72F16FCD79}">
   <dimension ref="A2:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="28"/>
-    <col min="2" max="2" width="4.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="28" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.21875" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="28"/>
+    <col min="1" max="1" width="8.88671875" style="15"/>
+    <col min="2" max="2" width="4.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6043,13 +6043,13 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -6067,19 +6067,19 @@
       <c r="I4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>45614.648935185185</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M4" s="11">
+      <c r="K4" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" s="10">
         <v>45622.440104166664</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>45622.57980324074</v>
       </c>
       <c r="O4" s="7" t="s">
@@ -6087,13 +6087,13 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -6111,19 +6111,19 @@
       <c r="I5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>45614.649178240739</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M5" s="11">
+      <c r="K5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" s="10">
         <v>45622.535821759258</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>45622.544907407406</v>
       </c>
       <c r="O5" s="7" t="s">
@@ -6131,13 +6131,13 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -6155,19 +6155,19 @@
       <c r="I6" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>45615.459050925929</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M6" s="11">
+      <c r="K6" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M6" s="10">
         <v>45615.465983796297</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>45615.466898148145</v>
       </c>
       <c r="O6" s="7" t="s">
@@ -6175,220 +6175,220 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="15">
+      <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="25">
         <v>12</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="18" t="s">
+      <c r="H7" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <v>45618.510023148148</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="23">
         <v>45622.550381944442</v>
       </c>
-      <c r="L7" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="O7" s="12" t="s">
+      <c r="L7" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="13" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="12" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="14" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="13" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="15">
+      <c r="B10" s="25">
         <v>5</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="25">
         <v>20</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="18" t="s">
+      <c r="H10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="23">
         <v>45615.460277777776</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="23">
         <v>45621.519907407404</v>
       </c>
-      <c r="L10" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="O10" s="12" t="s">
+      <c r="L10" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="17"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="14" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="13" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="15">
+      <c r="B12" s="25">
         <v>6</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="25">
         <v>40</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="18" t="s">
+      <c r="H12" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="23">
         <v>45615.468969907408</v>
       </c>
-      <c r="K12" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="M12" s="24">
+      <c r="K12" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M12" s="23">
         <v>45615.474502314813</v>
       </c>
-      <c r="N12" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="O12" s="12" t="s">
+      <c r="N12" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="14" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="13" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>80</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -6403,19 +6403,19 @@
       <c r="I14" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="10">
         <v>45621.534131944441</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>45621.643599537034</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N14" s="10" t="s">
+      <c r="L14" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N14" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O14" s="7" t="s">
@@ -6423,16 +6423,16 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>23</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -6447,19 +6447,19 @@
       <c r="I15" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <v>45616.719074074077</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>45622.533321759256</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N15" s="11">
+      <c r="L15" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N15" s="10">
         <v>45622.533449074072</v>
       </c>
       <c r="O15" s="7" t="s">
@@ -6467,16 +6467,16 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>3</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -6491,19 +6491,19 @@
       <c r="I16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <v>45617.675243055557</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>45622.531539351854</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N16" s="11">
+      <c r="L16" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N16" s="10">
         <v>45622.531666666669</v>
       </c>
       <c r="O16" s="7" t="s">
@@ -6511,16 +6511,16 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>26</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>70</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
@@ -6535,19 +6535,19 @@
       <c r="I17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="10">
         <v>45618.436921296299</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <v>45618.712638888886</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N17" s="11">
+      <c r="L17" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N17" s="10">
         <v>45622.530543981484</v>
       </c>
       <c r="O17" s="7" t="s">
@@ -6555,16 +6555,16 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>41</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>100</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -6579,34 +6579,34 @@
       <c r="I18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="10">
         <v>45621.655578703707</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>45622.53497685185</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N18" s="11">
+      <c r="L18" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N18" s="10">
         <v>45622.535115740742</v>
       </c>
       <c r="O18" s="7"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>42</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -6621,36 +6621,36 @@
       <c r="I19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="10">
         <v>45622.455891203703</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>45624.493981481479</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O19" s="10" t="s">
+      <c r="L19" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="O19" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>43</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>6</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -6665,36 +6665,36 @@
       <c r="I20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="10">
         <v>45622.456018518518</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>45624.493969907409</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O20" s="10" t="s">
+      <c r="L20" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>3</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -6709,36 +6709,36 @@
       <c r="I21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="10">
         <v>45622.519976851851</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <v>45624.465763888889</v>
       </c>
-      <c r="L21" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O21" s="10" t="s">
+      <c r="L21" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>45</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -6753,34 +6753,34 @@
       <c r="I22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="10">
         <v>45622.535555555558</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <v>45622.753993055558</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N22" s="10" t="s">
+      <c r="L22" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N22" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O22" s="7"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>46</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>10</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F23" s="7" t="s">
@@ -6795,34 +6795,34 @@
       <c r="I23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="10">
         <v>45622.535682870373</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <v>45622.750509259262</v>
       </c>
-      <c r="L23" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N23" s="10" t="s">
+      <c r="L23" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N23" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O23" s="7"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>47</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>100</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F24" s="7" t="s">
@@ -6837,31 +6837,31 @@
       <c r="I24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="10">
         <v>45622.535752314812</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="10">
         <v>45622.53837962963</v>
       </c>
-      <c r="L24" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N24" s="10" t="s">
+      <c r="L24" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N24" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O24" s="7"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>48</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>100</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -6879,34 +6879,34 @@
       <c r="I25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="10">
         <v>45622.535937499997</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <v>45622.538356481484</v>
       </c>
-      <c r="L25" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M25" s="11">
+      <c r="L25" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" s="10">
         <v>45622.538483796299</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="10">
         <v>45622.538576388892</v>
       </c>
       <c r="O25" s="7"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>49</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>100</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -6921,31 +6921,31 @@
       <c r="I26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="10">
         <v>45622.536215277774</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="10">
         <v>45622.750486111108</v>
       </c>
-      <c r="L26" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N26" s="10" t="s">
+      <c r="L26" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N26" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O26" s="7"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>50</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -6963,36 +6963,36 @@
       <c r="I27" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="10">
         <v>45622.536874999998</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="10">
         <v>45624.454143518517</v>
       </c>
-      <c r="L27" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O27" s="10" t="s">
+      <c r="L27" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="O27" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>51</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>100</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
@@ -7007,34 +7007,34 @@
       <c r="I28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="10">
         <v>45622.547905092593</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="10">
         <v>45624.534131944441</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N28" s="10" t="s">
+      <c r="L28" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N28" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O28" s="7"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>52</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>100</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
@@ -7049,31 +7049,31 @@
       <c r="I29" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="10">
         <v>45622.548009259262</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="10">
         <v>45624.534039351849</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N29" s="10" t="s">
+      <c r="L29" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N29" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O29" s="7"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>53</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>100</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -7091,31 +7091,31 @@
       <c r="I30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="10">
         <v>45622.54824074074</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="10">
         <v>45624.454953703702</v>
       </c>
-      <c r="L30" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N30" s="10" t="s">
+      <c r="L30" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N30" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O30" s="7"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>54</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>100</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -7133,31 +7133,31 @@
       <c r="I31" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="10">
         <v>45622.548449074071</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="10">
         <v>45624.456458333334</v>
       </c>
-      <c r="L31" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N31" s="10" t="s">
+      <c r="L31" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N31" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>55</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>100</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -7175,31 +7175,31 @@
       <c r="I32" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="10">
         <v>45622.548541666663</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="10">
         <v>45624.461574074077</v>
       </c>
-      <c r="L32" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N32" s="10" t="s">
+      <c r="L32" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N32" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>56</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>1</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -7217,33 +7217,33 @@
       <c r="I33" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="10">
         <v>45622.562719907408</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="10">
         <v>45624.46298611111</v>
       </c>
-      <c r="L33" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O33" s="10" t="s">
+      <c r="L33" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="O33" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>58</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>500</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -7261,19 +7261,19 @@
       <c r="I34" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="10">
         <v>45624.464131944442</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="10">
         <v>45624.484409722223</v>
       </c>
-      <c r="L34" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N34" s="10" t="s">
+      <c r="L34" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N34" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O34" s="7" t="s">
@@ -7281,13 +7281,13 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>59</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>30</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -7305,19 +7305,19 @@
       <c r="I35" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="10">
         <v>45624.464317129627</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="10">
         <v>45624.495370370372</v>
       </c>
-      <c r="L35" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N35" s="10" t="s">
+      <c r="L35" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N35" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O35" s="7" t="s">
@@ -7325,13 +7325,13 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>60</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>30</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -7349,19 +7349,19 @@
       <c r="I36" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="10">
         <v>45624.464444444442</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="10">
         <v>45624.487060185187</v>
       </c>
-      <c r="L36" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N36" s="10" t="s">
+      <c r="L36" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N36" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O36" s="7" t="s">
@@ -7369,13 +7369,13 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>61</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>30</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -7393,19 +7393,19 @@
       <c r="I37" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="10">
         <v>45624.464733796296</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="10">
         <v>45624.491666666669</v>
       </c>
-      <c r="L37" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N37" s="10" t="s">
+      <c r="L37" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N37" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O37" s="7" t="s">
@@ -7413,13 +7413,13 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>62</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>4</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -7437,19 +7437,19 @@
       <c r="I38" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="10">
         <v>45624.509386574071</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="10">
         <v>45624.541307870371</v>
       </c>
-      <c r="L38" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N38" s="10" t="s">
+      <c r="L38" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N38" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O38" s="7" t="s">
@@ -7457,13 +7457,13 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>81</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>20</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -7481,19 +7481,19 @@
       <c r="I39" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="10">
         <v>45685.438217592593</v>
       </c>
-      <c r="K39" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M39" s="11">
+      <c r="K39" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M39" s="10">
         <v>45685.444537037038</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="10">
         <v>45685.446192129632</v>
       </c>
       <c r="O39" s="7" t="s">
@@ -7501,13 +7501,13 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>82</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>1</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -7525,19 +7525,19 @@
       <c r="I40" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="10">
         <v>45685.438506944447</v>
       </c>
-      <c r="K40" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M40" s="11">
+      <c r="K40" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M40" s="10">
         <v>45685.458611111113</v>
       </c>
-      <c r="N40" s="10" t="s">
+      <c r="N40" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O40" s="7" t="s">
@@ -7545,16 +7545,16 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>83</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>100</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F41" s="7" t="s">
@@ -7569,19 +7569,19 @@
       <c r="I41" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="10">
         <v>45685.448599537034</v>
       </c>
-      <c r="K41" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M41" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N41" s="10" t="s">
+      <c r="K41" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N41" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O41" s="7" t="s">
@@ -7589,13 +7589,13 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>84</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>20</v>
       </c>
       <c r="E42" s="7" t="s">
@@ -7613,33 +7613,33 @@
       <c r="I42" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="10">
         <v>45685.449432870373</v>
       </c>
-      <c r="K42" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M42" s="11">
+      <c r="K42" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M42" s="10">
         <v>45685.451909722222</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N42" s="10">
         <v>45685.453055555554</v>
       </c>
-      <c r="O42" s="10" t="s">
+      <c r="O42" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>85</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>1</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -7657,19 +7657,19 @@
       <c r="I43" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="10">
         <v>45685.45045138889</v>
       </c>
-      <c r="K43" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M43" s="11">
+      <c r="K43" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M43" s="10">
         <v>45685.453194444446</v>
       </c>
-      <c r="N43" s="10" t="s">
+      <c r="N43" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O43" s="7" t="s">
@@ -7677,13 +7677,13 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>86</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>1</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -7701,19 +7701,19 @@
       <c r="I44" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="10">
         <v>45685.451562499999</v>
       </c>
-      <c r="K44" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M44" s="11">
+      <c r="K44" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M44" s="10">
         <v>45685.458958333336</v>
       </c>
-      <c r="N44" s="10" t="s">
+      <c r="N44" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O44" s="7" t="s">
@@ -7721,13 +7721,13 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>87</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>100</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -7745,36 +7745,36 @@
       <c r="I45" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="10">
         <v>45685.45207175926</v>
       </c>
-      <c r="K45" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M45" s="11">
+      <c r="K45" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M45" s="10">
         <v>45685.460555555554</v>
       </c>
-      <c r="N45" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O45" s="10" t="s">
+      <c r="N45" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="O45" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>88</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>1</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F46" s="7" t="s">
@@ -7789,19 +7789,19 @@
       <c r="I46" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="10">
         <v>45685.452847222223</v>
       </c>
-      <c r="K46" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N46" s="10" t="s">
+      <c r="K46" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N46" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O46" s="7" t="s">
@@ -7809,13 +7809,13 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>89</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>50</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -7833,33 +7833,33 @@
       <c r="I47" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="10">
         <v>45685.453657407408</v>
       </c>
-      <c r="K47" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M47" s="11">
+      <c r="K47" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M47" s="10">
         <v>45685.45484953704</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N47" s="10">
         <v>45685.455000000002</v>
       </c>
-      <c r="O47" s="10" t="s">
+      <c r="O47" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>90</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
@@ -7877,19 +7877,19 @@
       <c r="I48" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="10">
         <v>45685.454097222224</v>
       </c>
-      <c r="K48" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M48" s="11">
+      <c r="K48" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M48" s="10">
         <v>45685.458391203705</v>
       </c>
-      <c r="N48" s="10" t="s">
+      <c r="N48" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O48" s="7" t="s">
@@ -7897,16 +7897,16 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>91</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>5</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F49" s="7" t="s">
@@ -7921,33 +7921,33 @@
       <c r="I49" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="10">
         <v>45685.454884259256</v>
       </c>
-      <c r="K49" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N49" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O49" s="10" t="s">
+      <c r="K49" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="O49" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>92</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>1</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -7965,19 +7965,19 @@
       <c r="I50" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="10">
         <v>45685.455023148148</v>
       </c>
-      <c r="K50" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M50" s="11">
+      <c r="K50" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M50" s="10">
         <v>45685.458275462966</v>
       </c>
-      <c r="N50" s="10" t="s">
+      <c r="N50" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O50" s="7" t="s">
@@ -7985,16 +7985,16 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>104</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>20</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F51" s="7" t="s">
@@ -8009,19 +8009,19 @@
       <c r="I51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="10">
         <v>45686.545023148145</v>
       </c>
-      <c r="K51" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M51" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N51" s="10" t="s">
+      <c r="K51" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N51" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O51" s="7" t="s">
@@ -8029,16 +8029,16 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <v>105</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="8">
         <v>1</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F52" s="7" t="s">
@@ -8053,19 +8053,19 @@
       <c r="I52" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="10">
         <v>45686.545578703706</v>
       </c>
-      <c r="K52" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N52" s="10" t="s">
+      <c r="K52" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N52" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O52" s="7" t="s">
@@ -8073,17 +8073,17 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
-      <c r="B53" s="9">
+      <c r="A53" s="17"/>
+      <c r="B53" s="8">
         <v>121</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>1</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="9" t="s">
         <v>197</v>
       </c>
       <c r="F53" s="7" t="s">
@@ -8095,22 +8095,22 @@
       <c r="H53" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I53" s="29" t="s">
+      <c r="I53" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J53" s="10">
         <v>45687.52815972222</v>
       </c>
-      <c r="K53" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L53" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M53" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N53" s="10" t="s">
+      <c r="K53" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N53" s="9" t="s">
         <v>197</v>
       </c>
       <c r="O53" s="7" t="s">
@@ -8119,23 +8119,12 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="N7:N9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -8152,12 +8141,23 @@
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="L7:L9"/>
     <mergeCell ref="M7:M9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/text/テーブル定義書.xlsx
+++ b/text/テーブル定義書.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FFB59C-B471-4DA5-811C-396F3E6DCE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF142E8-FA89-D34B-B6B9-6578B4622396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22140" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義" sheetId="1" r:id="rId1"/>
@@ -1003,17 +1003,17 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1022,14 +1022,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1037,7 +1037,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7F878F"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1206,16 +1206,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1224,27 +1239,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4574,21 +4574,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="3" customFormat="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="3" customFormat="1">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="3" customFormat="1">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="3" customFormat="1">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="3" customFormat="1">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="82.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="82" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -4751,7 +4751,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="3" customFormat="1">
       <c r="A8" s="18">
         <v>2</v>
       </c>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="3" customFormat="1">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="3" customFormat="1">
       <c r="A10" s="18">
         <v>3</v>
       </c>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="3" customFormat="1">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="3" customFormat="1">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="18">
         <v>4</v>
       </c>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="18">
         <v>5</v>
       </c>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="3" customFormat="1">
       <c r="A17" s="18">
         <v>6</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="3" customFormat="1">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="3" customFormat="1">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="3" customFormat="1">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="3" customFormat="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="3" customFormat="1">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="3" customFormat="1">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="3" customFormat="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="3" customFormat="1">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="3" customFormat="1">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="3" customFormat="1">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="3" customFormat="1">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="3" customFormat="1">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="3" customFormat="1">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -5268,24 +5268,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="A17:A30"/>
     <mergeCell ref="B17:B30"/>
     <mergeCell ref="C17:C30"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5297,22 +5297,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D65" sqref="D65:D68"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15">
       <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="C5" s="7" t="s">
         <v>87</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="C6" s="7" t="s">
         <v>93</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="C7" s="7" t="s">
         <v>96</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="C8" s="7" t="s">
         <v>99</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="C9" s="7" t="s">
         <v>101</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="C10" s="7" t="s">
         <v>105</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="C11" s="7" t="s">
         <v>108</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="C12" s="7" t="s">
         <v>268</v>
       </c>
@@ -5492,13 +5492,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15">
       <c r="C16" s="6" t="s">
         <v>44</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="C17" s="7" t="s">
         <v>92</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="C18" s="7" t="s">
         <v>98</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="C19" s="7" t="s">
         <v>104</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="C20" s="7" t="s">
         <v>107</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="C21" s="7" t="s">
         <v>110</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="C22" s="7" t="s">
         <v>117</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="C23" s="7" t="s">
         <v>119</v>
       </c>
@@ -5562,13 +5562,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B25" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15">
       <c r="C27" s="6" t="s">
         <v>17</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="C28" s="7" t="s">
         <v>90</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="C29" s="7" t="s">
         <v>95</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="C30" s="7" t="s">
         <v>125</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="C31" s="7" t="s">
         <v>103</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="C32" s="7" t="s">
         <v>128</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5">
       <c r="C33" s="7" t="s">
         <v>130</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5">
       <c r="C34" s="7" t="s">
         <v>132</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:5">
       <c r="C35" s="7" t="s">
         <v>134</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:5">
       <c r="C36" s="7" t="s">
         <v>136</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:5">
       <c r="C37" s="7" t="s">
         <v>138</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:5">
       <c r="C38" s="7" t="s">
         <v>140</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:5">
       <c r="C39" s="7" t="s">
         <v>142</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:5">
       <c r="C40" s="7" t="s">
         <v>144</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:5">
       <c r="C41" s="7" t="s">
         <v>146</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:5">
       <c r="C42" s="7" t="s">
         <v>148</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:5">
       <c r="C43" s="7" t="s">
         <v>150</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:5">
       <c r="C44" s="7" t="s">
         <v>152</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:5">
       <c r="C45" s="7" t="s">
         <v>154</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:5">
       <c r="C46" s="7" t="s">
         <v>156</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:5">
       <c r="C47" s="7" t="s">
         <v>158</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:5">
       <c r="C48" s="7" t="s">
         <v>160</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="C49" s="7" t="s">
         <v>162</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="C50" s="7" t="s">
         <v>164</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="C51" s="7" t="s">
         <v>166</v>
       </c>
@@ -5843,13 +5843,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B53" s="5"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="15">
       <c r="C55" s="6" t="s">
         <v>17</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="C56" s="7" t="s">
         <v>90</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="C57" s="7" t="s">
         <v>95</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="C58" s="7" t="s">
         <v>125</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="C59" s="7" t="s">
         <v>103</v>
       </c>
@@ -5889,13 +5889,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B61" s="5"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="15">
       <c r="C63" s="6" t="s">
         <v>17</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="C64" s="7" t="s">
         <v>90</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:4">
       <c r="C65" s="7" t="s">
         <v>95</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:4">
       <c r="C66" s="7" t="s">
         <v>125</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:4">
       <c r="C67" s="7" t="s">
         <v>103</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:4">
       <c r="C68" s="7" t="s">
         <v>128</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:4">
       <c r="C69" s="7" t="s">
         <v>130</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:4">
       <c r="C70" s="7" t="s">
         <v>132</v>
       </c>
@@ -5974,31 +5974,31 @@
       <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="15"/>
-    <col min="2" max="2" width="4.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="2" max="2" width="4.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.5" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="15"/>
+    <col min="10" max="10" width="19.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="15" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15">
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="B5" s="8">
         <v>2</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="B6" s="8">
         <v>3</v>
       </c>
@@ -6174,211 +6174,211 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="25">
+    <row r="7" spans="1:15">
+      <c r="B7" s="22">
         <v>4</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>12</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="21" t="s">
+      <c r="H7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="28">
         <v>45618.510023148148</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="28">
         <v>45622.550381944442</v>
       </c>
-      <c r="L7" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="N7" s="19" t="s">
+      <c r="L7" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="N7" s="25" t="s">
         <v>197</v>
       </c>
       <c r="O7" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="30"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
+    <row r="8" spans="1:15">
+      <c r="B8" s="23"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="26"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
+    <row r="9" spans="1:15">
+      <c r="B9" s="24"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="25">
+    <row r="10" spans="1:15">
+      <c r="B10" s="22">
         <v>5</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <v>20</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="28">
         <v>45615.460277777776</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="28">
         <v>45621.519907407404</v>
       </c>
-      <c r="L10" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="N10" s="19" t="s">
+      <c r="L10" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="N10" s="25" t="s">
         <v>197</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="26"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
+    <row r="11" spans="1:15">
+      <c r="B11" s="24"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
       <c r="O11" s="13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="25">
+    <row r="12" spans="1:15">
+      <c r="B12" s="22">
         <v>6</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <v>40</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="21" t="s">
+      <c r="H12" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="28">
         <v>45615.468969907408</v>
       </c>
-      <c r="K12" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="M12" s="23">
+      <c r="K12" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M12" s="28">
         <v>45615.474502314813</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="25" t="s">
         <v>197</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="26"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="20"/>
+    <row r="13" spans="1:15">
+      <c r="B13" s="24"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="13" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="B14" s="8">
         <v>8</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="B15" s="8">
         <v>14</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="B16" s="8">
         <v>23</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15">
       <c r="B17" s="8">
         <v>26</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15">
       <c r="B18" s="8">
         <v>41</v>
       </c>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15">
       <c r="B19" s="8">
         <v>42</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="B20" s="8">
         <v>43</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15">
       <c r="B21" s="8">
         <v>44</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15">
       <c r="B22" s="8">
         <v>45</v>
       </c>
@@ -6770,7 +6770,7 @@
       </c>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15">
       <c r="B23" s="8">
         <v>46</v>
       </c>
@@ -6812,7 +6812,7 @@
       </c>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15">
       <c r="B24" s="8">
         <v>47</v>
       </c>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15">
       <c r="B25" s="8">
         <v>48</v>
       </c>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15">
       <c r="B26" s="8">
         <v>49</v>
       </c>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15">
       <c r="B27" s="8">
         <v>50</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15">
       <c r="B28" s="8">
         <v>51</v>
       </c>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15">
       <c r="B29" s="8">
         <v>52</v>
       </c>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15">
       <c r="B30" s="8">
         <v>53</v>
       </c>
@@ -7108,7 +7108,7 @@
       </c>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15">
       <c r="B31" s="8">
         <v>54</v>
       </c>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15">
       <c r="B32" s="8">
         <v>55</v>
       </c>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15">
       <c r="B33" s="8">
         <v>56</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15">
       <c r="B34" s="8">
         <v>58</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15">
       <c r="B35" s="8">
         <v>59</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15">
       <c r="B36" s="8">
         <v>60</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15">
       <c r="B37" s="8">
         <v>61</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15">
       <c r="B38" s="8">
         <v>62</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15">
       <c r="B39" s="8">
         <v>81</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15">
       <c r="B40" s="8">
         <v>82</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15">
       <c r="B41" s="8">
         <v>83</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15">
       <c r="B42" s="8">
         <v>84</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15">
       <c r="B43" s="8">
         <v>85</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15">
       <c r="B44" s="8">
         <v>86</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15">
       <c r="B45" s="8">
         <v>87</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15">
       <c r="B46" s="8">
         <v>88</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15">
       <c r="B47" s="8">
         <v>89</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15">
       <c r="B48" s="8">
         <v>90</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="B49" s="8">
         <v>91</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="B50" s="8">
         <v>92</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="B51" s="8">
         <v>104</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="B52" s="8">
         <v>105</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53" s="17"/>
       <c r="B53" s="8">
         <v>121</v>
@@ -8119,12 +8119,23 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
     <mergeCell ref="N7:N9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -8141,23 +8152,12 @@
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="L7:L9"/>
     <mergeCell ref="M7:M9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8172,28 +8172,28 @@
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1" customFormat="1"/>
+    <row r="2" customFormat="1"/>
+    <row r="3" customFormat="1"/>
+    <row r="4" customFormat="1"/>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1"/>
+    <row r="13" customFormat="1"/>
+    <row r="14" customFormat="1"/>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/text/テーブル定義書.xlsx
+++ b/text/テーブル定義書.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF142E8-FA89-D34B-B6B9-6578B4622396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F92450-A4C4-4C98-A329-7506FEDF98BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22140" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="275">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -413,9 +413,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>小林</t>
-  </si>
-  <si>
     <t>0001</t>
   </si>
   <si>
@@ -428,33 +425,21 @@
     <t>100002</t>
   </si>
   <si>
-    <t>安田</t>
-  </si>
-  <si>
     <t>0002</t>
   </si>
   <si>
     <t>200001</t>
   </si>
   <si>
-    <t>鶴田(部門長)</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>200002</t>
   </si>
   <si>
-    <t>山本(部門長)</t>
-  </si>
-  <si>
     <t>300000</t>
   </si>
   <si>
-    <t>山田(発注担当者)</t>
-  </si>
-  <si>
     <t>0004</t>
   </si>
   <si>
@@ -464,16 +449,10 @@
     <t>400000</t>
   </si>
   <si>
-    <t>角田(倉庫管理者)</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>500000</t>
-  </si>
-  <si>
-    <t>システム管理者</t>
   </si>
   <si>
     <t>5</t>
@@ -980,20 +959,47 @@
     <t>客室の椅子が壊れました</t>
   </si>
   <si>
-    <t>600000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>testユーザ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>岩村(一般)</t>
+  </si>
+  <si>
+    <t>中野(部門長)</t>
+  </si>
+  <si>
+    <t>200003</t>
+  </si>
+  <si>
+    <t>小坂(部門長)</t>
+  </si>
+  <si>
+    <t>上野(部門長)</t>
+  </si>
+  <si>
+    <t>成田(一般)</t>
+  </si>
+  <si>
+    <t>鶴田(一般)</t>
+  </si>
+  <si>
+    <t>植田(発注担当者)</t>
+  </si>
+  <si>
+    <t>大井川(倉庫管理者)</t>
+  </si>
+  <si>
+    <t>河合(システム管理)</t>
+  </si>
+  <si>
+    <t>testユーザ</t>
   </si>
 </sst>
 </file>
@@ -1003,17 +1009,17 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1022,14 +1028,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1037,7 +1043,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7F878F"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1160,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1206,45 +1212,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4574,21 +4586,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C12"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4617,7 +4629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -4644,7 +4656,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -4665,7 +4677,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -4686,7 +4698,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -4707,7 +4719,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -4728,7 +4740,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="82" customHeight="1">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="82.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -4751,7 +4763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1">
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>2</v>
       </c>
@@ -4778,7 +4790,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1">
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -4799,7 +4811,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1">
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>3</v>
       </c>
@@ -4826,7 +4838,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1">
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -4847,7 +4859,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1">
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -4868,7 +4880,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>4</v>
       </c>
@@ -4895,7 +4907,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -4916,7 +4928,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>5</v>
       </c>
@@ -4943,7 +4955,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -4964,7 +4976,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>6</v>
       </c>
@@ -4975,7 +4987,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
@@ -4993,12 +5005,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1">
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>21</v>
@@ -5014,12 +5026,12 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1">
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>69</v>
@@ -5035,12 +5047,12 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1">
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>70</v>
@@ -5056,12 +5068,12 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1">
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>71</v>
@@ -5077,12 +5089,12 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1">
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>72</v>
@@ -5098,12 +5110,12 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1">
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>73</v>
@@ -5119,12 +5131,12 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1">
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>40</v>
@@ -5140,12 +5152,12 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1">
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>74</v>
@@ -5161,12 +5173,12 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>75</v>
@@ -5182,12 +5194,12 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>76</v>
@@ -5203,12 +5215,12 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1">
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>77</v>
@@ -5224,12 +5236,12 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1">
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>78</v>
@@ -5245,12 +5257,12 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1">
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>79</v>
@@ -5268,24 +5280,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="C17:C30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="C17:C30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5295,24 +5307,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H70"/>
+  <dimension ref="A2:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
@@ -5332,7 +5344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>87</v>
       </c>
@@ -5340,623 +5352,671 @@
         <v>88</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="7" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>94</v>
+        <v>270</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
-        <v>96</v>
+        <v>263</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>264</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>102</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" s="7" t="s">
-        <v>105</v>
+        <v>266</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>118</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7" t="s">
-        <v>268</v>
+        <v>100</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="7" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5" t="s">
+      <c r="D19" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="15">
-      <c r="C16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="6" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="C17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="C18" s="7" t="s">
+      <c r="E29" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="C19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="C20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="C21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="D33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="C22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="7" t="s">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C46" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C47" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C48" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C50" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C52" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="C23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
+      <c r="D60" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C61" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C68" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="15">
-      <c r="C27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="C28" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D70" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C71" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="C29" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="C30" s="7" t="s">
+      <c r="D71" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C72" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="C31" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="C32" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="C40" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="C42" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="C43" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="C44" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5">
-      <c r="C45" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="C46" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="C47" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="C48" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="C49" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="C50" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="C51" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="55" spans="1:5" ht="15">
-      <c r="C55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="C56" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="C57" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="C58" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="C59" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="5" t="s">
+      <c r="D72" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="B61" s="5"/>
-    </row>
-    <row r="63" spans="1:5" ht="15">
-      <c r="C63" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="C64" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4">
-      <c r="C66" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4">
-      <c r="C68" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4">
-      <c r="C69" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4">
-      <c r="C70" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5971,34 +6031,34 @@
   <dimension ref="A2:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
-    <col min="2" max="2" width="4.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="15"/>
+    <col min="2" max="2" width="4.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.44140625" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="15" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="15"/>
+    <col min="10" max="10" width="19.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
@@ -6042,39 +6102,39 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J4" s="10">
         <v>45614.648935185185</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M4" s="10">
         <v>45622.440104166664</v>
@@ -6083,42 +6143,42 @@
         <v>45622.57980324074</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D5" s="8">
         <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J5" s="10">
         <v>45614.649178240739</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M5" s="10">
         <v>45622.535821759258</v>
@@ -6127,42 +6187,42 @@
         <v>45622.544907407406</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D6" s="8">
         <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J6" s="10">
         <v>45615.459050925929</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M6" s="10">
         <v>45615.465983796297</v>
@@ -6171,237 +6231,237 @@
         <v>45615.466898148145</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="23">
+        <v>4</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="23">
+        <v>12</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="19">
+        <v>45618.510023148148</v>
+      </c>
+      <c r="K7" s="19">
+        <v>45622.550381944442</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="30"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="24"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="23">
+        <v>5</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="23">
+        <v>20</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="19">
+        <v>45615.460277777776</v>
+      </c>
+      <c r="K10" s="19">
+        <v>45621.519907407404</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="24"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="B7" s="22">
-        <v>4</v>
-      </c>
-      <c r="C7" s="19" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="23">
+        <v>6</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="22">
-        <v>12</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="D12" s="23">
+        <v>40</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="H12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="28">
-        <v>45618.510023148148</v>
-      </c>
-      <c r="K7" s="28">
-        <v>45622.550381944442</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="O7" s="11" t="s">
+      <c r="J12" s="19">
+        <v>45615.468969907408</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M12" s="19">
+        <v>45615.474502314813</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="23"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="12" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="B9" s="24"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="B10" s="22">
-        <v>5</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="22">
-        <v>20</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J10" s="28">
-        <v>45615.460277777776</v>
-      </c>
-      <c r="K10" s="28">
-        <v>45621.519907407404</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="24"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="22">
-        <v>6</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="22">
-        <v>40</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="28">
-        <v>45615.468969907408</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="M12" s="28">
-        <v>45615.474502314813</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="B13" s="24"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D14" s="8">
         <v>80</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J14" s="10">
         <v>45621.534131944441</v>
@@ -6410,42 +6470,42 @@
         <v>45621.643599537034</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
         <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D15" s="8">
         <v>23</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J15" s="10">
         <v>45616.719074074077</v>
@@ -6454,42 +6514,42 @@
         <v>45622.533321759256</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N15" s="10">
         <v>45622.533449074072</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
         <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D16" s="8">
         <v>3</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J16" s="10">
         <v>45617.675243055557</v>
@@ -6498,42 +6558,42 @@
         <v>45622.531539351854</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N16" s="10">
         <v>45622.531666666669</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
         <v>26</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D17" s="8">
         <v>70</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J17" s="10">
         <v>45618.436921296299</v>
@@ -6542,42 +6602,42 @@
         <v>45618.712638888886</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N17" s="10">
         <v>45622.530543981484</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
         <v>41</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D18" s="8">
         <v>100</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J18" s="10">
         <v>45621.655578703707</v>
@@ -6586,40 +6646,40 @@
         <v>45622.53497685185</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N18" s="10">
         <v>45622.535115740742</v>
       </c>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="8">
         <v>42</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J19" s="10">
         <v>45622.455891203703</v>
@@ -6628,42 +6688,42 @@
         <v>45624.493981481479</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
         <v>43</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D20" s="8">
         <v>6</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J20" s="10">
         <v>45622.456018518518</v>
@@ -6672,42 +6732,42 @@
         <v>45624.493969907409</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
         <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D21" s="8">
         <v>3</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J21" s="10">
         <v>45622.519976851851</v>
@@ -6716,42 +6776,42 @@
         <v>45624.465763888889</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
         <v>45</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J22" s="10">
         <v>45622.535555555558</v>
@@ -6760,40 +6820,40 @@
         <v>45622.753993055558</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="8">
         <v>46</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D23" s="8">
         <v>10</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J23" s="10">
         <v>45622.535682870373</v>
@@ -6802,40 +6862,40 @@
         <v>45622.750509259262</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="8">
         <v>47</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D24" s="8">
         <v>100</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J24" s="10">
         <v>45622.535752314812</v>
@@ -6844,40 +6904,40 @@
         <v>45622.53837962963</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="8">
         <v>48</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D25" s="8">
         <v>100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J25" s="10">
         <v>45622.535937499997</v>
@@ -6886,7 +6946,7 @@
         <v>45622.538356481484</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M25" s="10">
         <v>45622.538483796299</v>
@@ -6896,30 +6956,30 @@
       </c>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
         <v>49</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D26" s="8">
         <v>100</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J26" s="10">
         <v>45622.536215277774</v>
@@ -6928,40 +6988,40 @@
         <v>45622.750486111108</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="8">
         <v>50</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J27" s="10">
         <v>45622.536874999998</v>
@@ -6970,42 +7030,42 @@
         <v>45624.454143518517</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
         <v>51</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D28" s="8">
         <v>100</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J28" s="10">
         <v>45622.547905092593</v>
@@ -7014,40 +7074,40 @@
         <v>45624.534131944441</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
         <v>52</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D29" s="8">
         <v>100</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J29" s="10">
         <v>45622.548009259262</v>
@@ -7056,40 +7116,40 @@
         <v>45624.534039351849</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
         <v>53</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D30" s="8">
         <v>100</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J30" s="10">
         <v>45622.54824074074</v>
@@ -7098,40 +7158,40 @@
         <v>45624.454953703702</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
         <v>54</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D31" s="8">
         <v>100</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J31" s="10">
         <v>45622.548449074071</v>
@@ -7140,40 +7200,40 @@
         <v>45624.456458333334</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
         <v>55</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D32" s="8">
         <v>100</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J32" s="10">
         <v>45622.548541666663</v>
@@ -7182,40 +7242,40 @@
         <v>45624.461574074077</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O32" s="7"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="8">
         <v>56</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D33" s="8">
         <v>1</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J33" s="10">
         <v>45622.562719907408</v>
@@ -7224,42 +7284,42 @@
         <v>45624.46298611111</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="8">
         <v>58</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D34" s="8">
         <v>500</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J34" s="10">
         <v>45624.464131944442</v>
@@ -7268,42 +7328,42 @@
         <v>45624.484409722223</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="8">
         <v>59</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D35" s="8">
         <v>30</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J35" s="10">
         <v>45624.464317129627</v>
@@ -7312,42 +7372,42 @@
         <v>45624.495370370372</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="8">
         <v>60</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D36" s="8">
         <v>30</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J36" s="10">
         <v>45624.464444444442</v>
@@ -7356,42 +7416,42 @@
         <v>45624.487060185187</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="8">
         <v>61</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D37" s="8">
         <v>30</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J37" s="10">
         <v>45624.464733796296</v>
@@ -7400,42 +7460,42 @@
         <v>45624.491666666669</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="8">
         <v>62</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D38" s="8">
         <v>4</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J38" s="10">
         <v>45624.509386574071</v>
@@ -7444,51 +7504,51 @@
         <v>45624.541307870371</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="8">
         <v>81</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D39" s="8">
         <v>20</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J39" s="10">
         <v>45685.438217592593</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M39" s="10">
         <v>45685.444537037038</v>
@@ -7497,130 +7557,130 @@
         <v>45685.446192129632</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="8">
         <v>82</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D40" s="8">
         <v>1</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J40" s="10">
         <v>45685.438506944447</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M40" s="10">
         <v>45685.458611111113</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
         <v>83</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D41" s="8">
         <v>100</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J41" s="10">
         <v>45685.448599537034</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="8">
         <v>84</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D42" s="8">
         <v>20</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J42" s="10">
         <v>45685.449432870373</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M42" s="10">
         <v>45685.451909722222</v>
@@ -7629,218 +7689,218 @@
         <v>45685.453055555554</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="8">
         <v>85</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J43" s="10">
         <v>45685.45045138889</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M43" s="10">
         <v>45685.453194444446</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="8">
         <v>86</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D44" s="8">
         <v>1</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J44" s="10">
         <v>45685.451562499999</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M44" s="10">
         <v>45685.458958333336</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="8">
         <v>87</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D45" s="8">
         <v>100</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J45" s="10">
         <v>45685.45207175926</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M45" s="10">
         <v>45685.460555555554</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="8">
         <v>88</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D46" s="8">
         <v>1</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J46" s="10">
         <v>45685.452847222223</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="8">
         <v>89</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D47" s="8">
         <v>50</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J47" s="10">
         <v>45685.453657407408</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M47" s="10">
         <v>45685.45484953704</v>
@@ -7849,293 +7909,282 @@
         <v>45685.455000000002</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="8">
         <v>90</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D48" s="8">
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J48" s="10">
         <v>45685.454097222224</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M48" s="10">
         <v>45685.458391203705</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="8">
         <v>91</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D49" s="8">
         <v>5</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J49" s="10">
         <v>45685.454884259256</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="8">
         <v>92</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D50" s="8">
         <v>1</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J50" s="10">
         <v>45685.455023148148</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M50" s="10">
         <v>45685.458275462966</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B51" s="8">
         <v>104</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D51" s="8">
         <v>20</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="10">
         <v>45686.545023148145</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="8">
         <v>105</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D52" s="8">
         <v>1</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="10">
         <v>45686.545578703706</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
       <c r="B53" s="8">
         <v>121</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D53" s="8">
         <v>1</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="J53" s="10">
         <v>45687.52815972222</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="N7:N9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -8152,12 +8201,23 @@
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="L7:L9"/>
     <mergeCell ref="M7:M9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8168,32 +8228,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD9EDDC-D122-3341-955E-5C279FAB438D}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="1"/>
-    <row r="2" customFormat="1"/>
-    <row r="3" customFormat="1"/>
-    <row r="4" customFormat="1"/>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
+    <row r="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
